--- a/src/main/resources/config/gameConfig.xlsx
+++ b/src/main/resources/config/gameConfig.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9847D64-5A91-463A-AAEE-85ED73DED333}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F62538-4829-4BBF-800B-2B66FFB3C7C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>起始</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,30 @@
   </si>
   <si>
     <t>endGem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cellIntegral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gemstoneIntegral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>victoryGemstoneNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defeatGemstoneNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>victoryIntegral</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>defeatIntegral</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,9 +224,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -230,15 +253,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,122 +592,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A10:G10"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -706,7 +693,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -717,450 +704,450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>15</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>16</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>30</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>31</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>45</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>46</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>60</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>61</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>75</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>76</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>90</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>1</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>91</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>105</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>106</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>120</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>121</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>135</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>136</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <v>150</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>151</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <v>165</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>166</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>180</v>
       </c>
-      <c r="C14" s="3">
-        <v>3</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>181</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <v>195</v>
       </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>196</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>210</v>
       </c>
-      <c r="C16" s="3">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>211</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>225</v>
       </c>
-      <c r="C17" s="3">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3">
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>226</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="2">
         <v>240</v>
       </c>
-      <c r="C18" s="3">
-        <v>3</v>
-      </c>
-      <c r="D18" s="3">
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>241</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>255</v>
       </c>
-      <c r="C19" s="3">
-        <v>3</v>
-      </c>
-      <c r="D19" s="3">
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>256</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="2">
         <v>270</v>
       </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>271</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>285</v>
       </c>
-      <c r="C21" s="3">
-        <v>3</v>
-      </c>
-      <c r="D21" s="3">
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>286</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>300</v>
       </c>
-      <c r="C22" s="3">
-        <v>3</v>
-      </c>
-      <c r="D22" s="3">
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>301</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>315</v>
       </c>
-      <c r="C23" s="3">
-        <v>3</v>
-      </c>
-      <c r="D23" s="3">
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>316</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>330</v>
       </c>
-      <c r="C24" s="3">
-        <v>3</v>
-      </c>
-      <c r="D24" s="3">
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>331</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>345</v>
       </c>
-      <c r="C25" s="3">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3">
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>346</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>360</v>
       </c>
-      <c r="C26" s="3">
-        <v>3</v>
-      </c>
-      <c r="D26" s="3">
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>361</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>375</v>
       </c>
-      <c r="C27" s="3">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3">
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>376</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>390</v>
       </c>
-      <c r="C28" s="3">
-        <v>3</v>
-      </c>
-      <c r="D28" s="3">
+      <c r="C28" s="2">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>391</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>405</v>
       </c>
-      <c r="C29" s="3">
-        <v>3</v>
-      </c>
-      <c r="D29" s="3">
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>406</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>420</v>
       </c>
-      <c r="C30" s="3">
-        <v>3</v>
-      </c>
-      <c r="D30" s="3">
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>421</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>435</v>
       </c>
-      <c r="C31" s="3">
-        <v>3</v>
-      </c>
-      <c r="D31" s="3">
+      <c r="C31" s="2">
+        <v>3</v>
+      </c>
+      <c r="D31" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>436</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>450</v>
       </c>
-      <c r="C32" s="3">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3">
+      <c r="C32" s="2">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2">
         <v>4</v>
       </c>
     </row>
@@ -1173,12 +1160,65 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/config/gameConfig.xlsx
+++ b/src/main/resources/config/gameConfig.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F62538-4829-4BBF-800B-2B66FFB3C7C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15975"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -314,7 +313,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -347,26 +346,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -399,23 +381,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -591,11 +556,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -660,13 +625,13 @@
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B4" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -689,11 +654,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -739,10 +704,10 @@
         <v>15</v>
       </c>
       <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -753,7 +718,7 @@
         <v>30</v>
       </c>
       <c r="C4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -770,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -784,7 +749,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -1159,7 +1124,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
